--- a/504文档/招生/申请人员汇总-投票结果.xlsx
+++ b/504文档/招生/申请人员汇总-投票结果.xlsx
@@ -845,27 +845,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1171,7 +1155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2002,7 +1986,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:I33">
-    <sortCondition sortBy="cellColor" ref="A2:A33" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A33" dxfId="0"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/504文档/招生/申请人员汇总-投票结果.xlsx
+++ b/504文档/招生/申请人员汇总-投票结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,43 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方文元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐鲁工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子化学与物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18253162617@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭晓峰</t>
+  </si>
+  <si>
+    <t>北京化工大学</t>
+  </si>
+  <si>
+    <t>guoxiaofeng93@163.com</t>
+  </si>
+  <si>
+    <t>迟到回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +772,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +815,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -791,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,6 +884,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1151,11 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1636,351 +1686,388 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="I18" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>15801027057</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="5">
-        <v>15503591138</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F25" s="5">
+        <v>15503591138</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="1">
-        <v>13693212028</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F27" s="1">
-        <v>15202157730</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>13693212028</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1">
-        <v>18317065573</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>15202157730</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1">
-        <v>15263105925</v>
+        <v>18317065573</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="1">
+        <v>15263105925</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>15887841007</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>154</v>
       </c>
     </row>

--- a/504文档/招生/申请人员汇总-投票结果.xlsx
+++ b/504文档/招生/申请人员汇总-投票结果.xlsx
@@ -1205,7 +1205,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/504文档/招生/申请人员汇总-投票结果.xlsx
+++ b/504文档/招生/申请人员汇总-投票结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="187">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,6 +712,34 @@
   </si>
   <si>
     <t>迟到回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王卫杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料加工工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>815920336@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1731,9 @@
         <v>37</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="H18" s="21" t="s">
         <v>152</v>
       </c>
@@ -1727,347 +1757,370 @@
       <c r="E19" s="21" t="s">
         <v>177</v>
       </c>
+      <c r="G19" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="I19" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>15801027057</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="5">
-        <v>15503591138</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="E26" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F26" s="5">
+        <v>15503591138</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="1">
-        <v>13693212028</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>15202157730</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>13693212028</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1">
-        <v>18317065573</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>15202157730</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F30" s="1">
-        <v>15263105925</v>
+        <v>18317065573</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15263105925</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>15887841007</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>154</v>
       </c>
     </row>

--- a/504文档/招生/申请人员汇总-投票结果.xlsx
+++ b/504文档/招生/申请人员汇总-投票结果.xlsx
@@ -1232,8 +1232,8 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
